--- a/biology/Botanique/Blysmus_compressus/Blysmus_compressus.xlsx
+++ b/biology/Botanique/Blysmus_compressus/Blysmus_compressus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Blysmus compressus, de noms communs Blysme comprimé, Scirpe comprimé, Scirpe à épillets comprimés ou Souchet comprimé, est une plante vivace du genre Blysmus et de la famille des Cyperaceae.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Du grec cheveu et je porte. Les houppes terminant la tige fructifère sont fines comme des cheveux[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Du grec cheveu et je porte. Les houppes terminant la tige fructifère sont fines comme des cheveux.
 </t>
         </is>
       </c>
@@ -544,12 +558,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Le souchet comprimé mesure de 10 à 30 cm. C'est une plante glabre, à souche rampante-stolonifère ; les tiges sont arrondies et comprimées, trigones au sommet, lisses et feuillées ; les feuilles larges de 2-3 mm, un peu canaliculées, sont à peine rudes aux bords[2].
-Appareil reproducteur
-Les épillets, roussâtres, longs de 5 à 7 mm, sont pauciflores, nombreux et sessiles, en épi terminal, oblong, distique, comprimé, dépassé ou non par une bractée ; les écailles sont mucronées, à plusieurs nervures. Il y a deux stigmates, et trois à six soies scabres, deux fois plus longues que l'akène ovoïde-comprimé mucroné.
-La floraison a lieu de mai à août[2].
-</t>
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Le souchet comprimé mesure de 10 à 30 cm. C'est une plante glabre, à souche rampante-stolonifère ; les tiges sont arrondies et comprimées, trigones au sommet, lisses et feuillées ; les feuilles larges de 2-3 mm, un peu canaliculées, sont à peine rudes aux bords.</t>
         </is>
       </c>
     </row>
@@ -574,12 +590,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Habitat</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">C’est une plante assez commune des pelouses humides et des sources. Elle pousse jusqu'à une altitude de 2 600 mètres[3].
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les épillets, roussâtres, longs de 5 à 7 mm, sont pauciflores, nombreux et sessiles, en épi terminal, oblong, distique, comprimé, dépassé ou non par une bractée ; les écailles sont mucronées, à plusieurs nervures. Il y a deux stigmates, et trois à six soies scabres, deux fois plus longues que l'akène ovoïde-comprimé mucroné.
+La floraison a lieu de mai à août.
 </t>
         </is>
       </c>
@@ -605,12 +628,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Répartition</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette plante est originaire d'Eurasie[4].
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C’est une plante assez commune des pelouses humides et des sources. Elle pousse jusqu'à une altitude de 2 600 mètres.
 </t>
         </is>
       </c>
@@ -636,10 +661,45 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Répartition</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante est originaire d'Eurasie.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Blysmus_compressus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Blysmus_compressus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Aplostemon compressus (L.) Raf., 1819
 Blysmus compressus var. aristatus Chatenier ex Rouy, 1912
@@ -655,37 +715,39 @@
 Scirpus compressus (L.) Borkh., 1796
 Scirpus compressus (L.) Pers., 1805
 Scirpus distichus Peterm., 1844
-Scirpus planifolius Grimm, 1767[5]</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
+Scirpus planifolius Grimm, 1767</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Blysmus_compressus</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Blysmus_compressus</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Liste des variétés et sous-espèces</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (19 mai 2020)[6] :
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (19 mai 2020) :
 sous-espèce Blysmus compressus subsp. brevifolius (Decne.) Kukkonen
 sous-espèce Blysmus compressus subsp. compressus
 sous-espèce Blysmus compressus subsp. subulifolius A.P. Khokhr.
